--- a/assets/Energy_Measurement_Messdaten.xlsx
+++ b/assets/Energy_Measurement_Messdaten.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannikolai.rueckert/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nele/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B4284-01E5-1D4E-98A9-4FBA36478EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0EF7E3F-21A2-394D-A010-88233FB1DA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einleitung" sheetId="5" r:id="rId1"/>
-    <sheet name="React" sheetId="1" r:id="rId2"/>
-    <sheet name="Next" sheetId="2" r:id="rId3"/>
-    <sheet name="Astro" sheetId="3" r:id="rId4"/>
-    <sheet name="Energy Compound" sheetId="4" r:id="rId5"/>
-    <sheet name="Optimierung" sheetId="6" r:id="rId6"/>
+    <sheet name="Tabelle3" sheetId="9" r:id="rId2"/>
+    <sheet name="React" sheetId="1" r:id="rId3"/>
+    <sheet name="Next" sheetId="2" r:id="rId4"/>
+    <sheet name="Astro" sheetId="3" r:id="rId5"/>
+    <sheet name="Energy Compound" sheetId="4" r:id="rId6"/>
+    <sheet name="Optimierung" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="121">
   <si>
     <t>Wiederhoung</t>
   </si>
@@ -351,6 +352,57 @@
   <si>
     <t>Q3</t>
   </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances</t>
+  </si>
+  <si>
+    <t>Unterschied: React &amp; Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterschied React &amp; Astro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterschied Next &amp; Astro </t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Unterschied React</t>
+  </si>
+  <si>
+    <t>Unterschied Next</t>
+  </si>
 </sst>
 </file>
 
@@ -442,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -462,12 +514,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -485,7 +540,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -610,7 +665,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -732,7 +787,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -769,7 +824,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -783,7 +838,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1017,7 +1072,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1135,7 +1190,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1149,7 +1204,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1307,7 +1362,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1345,7 +1400,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92322208"/>
@@ -1427,7 +1482,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1459,7 +1514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="76268288"/>
@@ -1500,7 +1555,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1514,7 +1569,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1721,7 +1776,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1759,7 +1814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1038743759"/>
@@ -1848,7 +1903,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1880,7 +1935,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1038762543"/>
@@ -1922,7 +1977,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1959,7 +2014,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1973,7 +2028,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2370,7 +2425,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="385598064"/>
@@ -2452,7 +2507,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2484,7 +2539,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="384950640"/>
@@ -2526,7 +2581,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2556,7 +2611,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2570,7 +2625,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2840,7 +2895,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2965,7 +3020,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2995,7 +3050,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3009,7 +3064,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3255,7 +3310,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3373,7 +3428,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3403,7 +3458,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3417,7 +3472,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3644,7 +3699,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3763,7 +3818,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3793,7 +3848,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3807,7 +3862,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3876,7 +3931,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3997,7 +4052,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4120,7 +4175,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4264,7 +4319,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4302,7 +4357,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2129886207"/>
@@ -4384,7 +4439,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4416,7 +4471,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2129884479"/>
@@ -4458,7 +4513,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4488,7 +4543,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4502,7 +4557,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4710,7 +4765,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4748,7 +4803,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="380045344"/>
@@ -4830,7 +4885,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4862,7 +4917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="380004752"/>
@@ -4903,7 +4958,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4917,7 +4972,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5072,7 +5127,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[RUBRIKENNAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -5083,7 +5138,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PROZENTSATZ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -5123,7 +5178,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DE"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -5222,7 +5277,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[RUBRIKENNAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -5233,7 +5288,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PROZENTSATZ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -5273,7 +5328,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DE"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -5365,7 +5420,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[RUBRIKENNAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -5376,7 +5431,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PROZENTSATZ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -5416,7 +5471,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DE"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -5485,7 +5540,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5609,7 +5664,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5623,7 +5678,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5876,7 +5931,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5993,7 +6048,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13608,6 +13663,592 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908A96D2-F466-EC41-B67B-828D7E824AC9}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="3" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="9">
+        <v>174.23500000000001</v>
+      </c>
+      <c r="C4" s="9">
+        <v>189.94300000000001</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6.6030051724137815</v>
+      </c>
+      <c r="C5" s="9">
+        <v>44.022890689655199</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="9">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="9">
+        <v>62.829666666666661</v>
+      </c>
+      <c r="I6" s="9">
+        <v>61.195333333333338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="9">
+        <v>8.3928309195402306</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1.5295636781609196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="9">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="9">
+        <v>30</v>
+      </c>
+      <c r="I8" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-12.0919170488517</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.39164519221337885</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="9">
+        <v>6.765286070548117E-15</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1.6859544601667387</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="9">
+        <v>29</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1.3530572141096234E-14</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="9">
+        <v>3.3557197024537828</v>
+      </c>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.0243941639119702</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1.1111000162991927E-3</v>
+      </c>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1.6991270265334986</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2.2222000325983855E-3</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2.0452296421327048</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9">
+        <v>174.23500000000001</v>
+      </c>
+      <c r="C18" s="9">
+        <v>175.92800000000003</v>
+      </c>
+      <c r="G18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="9">
+        <v>6.6030051724137815</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3.1383475862068986</v>
+      </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="9">
+        <v>30</v>
+      </c>
+      <c r="C20" s="9">
+        <v>30</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="9">
+        <v>62.829666666666661</v>
+      </c>
+      <c r="I21" s="9">
+        <v>66.957999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="9">
+        <v>51</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="9">
+        <v>8.3928309195402306</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2.1016372413793065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="9">
+        <v>-2.9710362465260332</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="9">
+        <v>30</v>
+      </c>
+      <c r="I23" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2.2590516258966871E-3</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.12269734490284293</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1.6752849504249088</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4.5181032517933742E-3</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="9">
+        <v>29</v>
+      </c>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2.007583770315835</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="G27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="9">
+        <v>-7.3502394235271344</v>
+      </c>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G28" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2.1291178892303741E-8</v>
+      </c>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G29" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1.6991270265334986</v>
+      </c>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="9">
+        <v>4.2582357784607481E-8</v>
+      </c>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="10">
+        <v>2.0452296421327048</v>
+      </c>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="9">
+        <v>189.94300000000001</v>
+      </c>
+      <c r="C33" s="9">
+        <v>175.92800000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="9">
+        <v>44.022890689655199</v>
+      </c>
+      <c r="C34" s="9">
+        <v>3.1383475862068986</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="9">
+        <v>30</v>
+      </c>
+      <c r="C35" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="9">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="9">
+        <v>33</v>
+      </c>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="9">
+        <v>11.177923414007948</v>
+      </c>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="9">
+        <v>4.6357952726418282E-13</v>
+      </c>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1.6923603090303456</v>
+      </c>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="9">
+        <v>9.2715905452836565E-13</v>
+      </c>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="10">
+        <v>2.0345152974493397</v>
+      </c>
+      <c r="C42" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
@@ -15114,7 +15755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44FE115-DF6F-EC41-8C23-7E982EF24CA7}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
@@ -16740,7 +17381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92331443-215F-B845-8F73-6DF91C381780}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
@@ -17377,12 +18018,6 @@
       <c r="G16">
         <v>231.66</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -17406,20 +18041,17 @@
       <c r="G17">
         <v>227.4</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17">
         <f>QUARTILE(B2:B31,1)</f>
         <v>7.55</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9">
+      <c r="N17">
         <f>QUARTILE(D2:D31,1)</f>
         <v>2.3824999999999998</v>
       </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
@@ -17443,20 +18075,17 @@
       <c r="G18">
         <v>231.6</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" t="s">
         <v>103</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18">
         <f>QUARTILE(B2:B31,3)</f>
         <v>7.64</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9">
+      <c r="N18">
         <f>QUARTILE(D2:D31,3)</f>
         <v>2.4</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
@@ -17480,7 +18109,7 @@
       <c r="G19">
         <v>229.42</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" t="s">
         <v>53</v>
       </c>
       <c r="K19">
@@ -18452,7 +19081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C97C4AE-1E21-3C44-852E-FDB61FADA4B3}">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -18631,12 +19260,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25552FE2-41EA-FF44-B115-EA1DC2D32EE6}">
   <dimension ref="A1:AM111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assets/Energy_Measurement_Messdaten.xlsx
+++ b/assets/Energy_Measurement_Messdaten.xlsx
@@ -5,21 +5,21 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nele/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannikolai.rueckert/WebstormProjects/green-corporate-website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0EF7E3F-21A2-394D-A010-88233FB1DA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D87AB-FA1A-F345-8740-050FBA0582CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einleitung" sheetId="5" r:id="rId1"/>
-    <sheet name="Tabelle3" sheetId="9" r:id="rId2"/>
-    <sheet name="React" sheetId="1" r:id="rId3"/>
-    <sheet name="Next" sheetId="2" r:id="rId4"/>
-    <sheet name="Astro" sheetId="3" r:id="rId5"/>
-    <sheet name="Energy Compound" sheetId="4" r:id="rId6"/>
-    <sheet name="Optimierung" sheetId="6" r:id="rId7"/>
+    <sheet name="React" sheetId="1" r:id="rId2"/>
+    <sheet name="Next" sheetId="2" r:id="rId3"/>
+    <sheet name="Astro" sheetId="3" r:id="rId4"/>
+    <sheet name="Energy Compound" sheetId="4" r:id="rId5"/>
+    <sheet name="Optimierung" sheetId="6" r:id="rId6"/>
+    <sheet name="t-Tests" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -329,9 +329,6 @@
     <t>Trend</t>
   </si>
   <si>
-    <t>Code Splitting</t>
-  </si>
-  <si>
     <t>Ohne Code Splitting</t>
   </si>
   <si>
@@ -402,6 +399,9 @@
   </si>
   <si>
     <t>Unterschied Next</t>
+  </si>
+  <si>
+    <t>Mit Code Splitting</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -508,21 +508,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -540,7 +538,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -665,7 +663,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -787,7 +785,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -824,7 +822,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -838,7 +836,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1072,7 +1070,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1190,7 +1188,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1204,7 +1202,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1362,7 +1360,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1400,7 +1398,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92322208"/>
@@ -1482,7 +1480,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1514,7 +1512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="76268288"/>
@@ -1555,7 +1553,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1569,7 +1567,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1582,7 +1580,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11982608583873282"/>
+          <c:y val="8.2761585944459662E-2"/>
+          <c:w val="0.86008762029435359"/>
+          <c:h val="0.63915644568341157"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1632,10 +1640,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>263.07</c:v>
+                  <c:v>263.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>293.62</c:v>
+                  <c:v>293.58999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,7 +1663,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Code Splitting</c:v>
+                  <c:v>Mit Code Splitting</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1670,6 +1678,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-86DD-4341-8195-BBCADCAE3636}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Optimierung!$B$1:$C$2</c:f>
@@ -1691,10 +1716,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>261.49</c:v>
+                  <c:v>261.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284.41000000000003</c:v>
+                  <c:v>284.60000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,6 +1776,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44485814465704421"/>
+              <c:y val="0.80574088878718264"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1776,7 +1809,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1814,7 +1847,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1038743759"/>
@@ -1878,6 +1911,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.0293957526713095E-2"/>
+              <c:y val="9.5956383867142572E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1903,7 +1944,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1935,7 +1976,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1038762543"/>
@@ -1977,7 +2018,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2014,7 +2055,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2028,7 +2069,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2425,7 +2466,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="385598064"/>
@@ -2507,7 +2548,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2539,7 +2580,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="384950640"/>
@@ -2581,7 +2622,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2611,7 +2652,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2625,7 +2666,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2895,7 +2936,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3020,7 +3061,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3050,7 +3091,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3064,7 +3105,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3310,7 +3351,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3428,7 +3469,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3458,7 +3499,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3472,7 +3513,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3699,7 +3740,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3818,7 +3859,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3848,7 +3889,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3862,7 +3903,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3931,7 +3972,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4052,7 +4093,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4175,7 +4216,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4319,7 +4360,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4357,7 +4398,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2129886207"/>
@@ -4439,7 +4480,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4471,7 +4512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2129884479"/>
@@ -4513,7 +4554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4543,7 +4584,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4557,7 +4598,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4765,7 +4806,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4803,7 +4844,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="380045344"/>
@@ -4885,7 +4926,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4917,7 +4958,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="380004752"/>
@@ -4958,7 +4999,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4972,7 +5013,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5127,7 +5168,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[RUBRIKENNAME]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -5138,7 +5179,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[PROZENTSATZ]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -5178,7 +5219,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -5277,7 +5318,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[RUBRIKENNAME]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -5288,7 +5329,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[PROZENTSATZ]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -5328,7 +5369,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -5420,7 +5461,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[RUBRIKENNAME]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -5431,7 +5472,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[PROZENTSATZ]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -5471,7 +5512,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -5540,7 +5581,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5664,7 +5705,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5678,7 +5719,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5931,7 +5972,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6048,7 +6089,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13114,18 +13155,18 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>818189</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279818</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>60938</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>394874</xdr:colOff>
+      <xdr:colOff>151849</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>128067</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13663,592 +13704,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908A96D2-F466-EC41-B67B-828D7E824AC9}">
-  <dimension ref="A1:I42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="3" width="29.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="G3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="9">
-        <v>174.23500000000001</v>
-      </c>
-      <c r="C4" s="9">
-        <v>189.94300000000001</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="G4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="9">
-        <v>6.6030051724137815</v>
-      </c>
-      <c r="C5" s="9">
-        <v>44.022890689655199</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="9">
-        <v>30</v>
-      </c>
-      <c r="C6" s="9">
-        <v>30</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="9">
-        <v>62.829666666666661</v>
-      </c>
-      <c r="I6" s="9">
-        <v>61.195333333333338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="9">
-        <v>8.3928309195402306</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1.5295636781609196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="9">
-        <v>38</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="9">
-        <v>30</v>
-      </c>
-      <c r="I8" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-12.0919170488517</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.39164519221337885</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="9">
-        <v>6.765286070548117E-15</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1.6859544601667387</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="9">
-        <v>29</v>
-      </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1.3530572141096234E-14</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="9">
-        <v>3.3557197024537828</v>
-      </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2.0243941639119702</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="G13" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1.1111000162991927E-3</v>
-      </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G14" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1.6991270265334986</v>
-      </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="9">
-        <v>2.2222000325983855E-3</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="10">
-        <v>2.0452296421327048</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="9">
-        <v>174.23500000000001</v>
-      </c>
-      <c r="C18" s="9">
-        <v>175.92800000000003</v>
-      </c>
-      <c r="G18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="9">
-        <v>6.6030051724137815</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3.1383475862068986</v>
-      </c>
-      <c r="G19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="9">
-        <v>30</v>
-      </c>
-      <c r="C20" s="9">
-        <v>30</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="G21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="9">
-        <v>62.829666666666661</v>
-      </c>
-      <c r="I21" s="9">
-        <v>66.957999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="9">
-        <v>51</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="9">
-        <v>8.3928309195402306</v>
-      </c>
-      <c r="I22" s="9">
-        <v>2.1016372413793065</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="9">
-        <v>-2.9710362465260332</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="9">
-        <v>30</v>
-      </c>
-      <c r="I23" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="9">
-        <v>2.2590516258966871E-3</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="G24" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0.12269734490284293</v>
-      </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="9">
-        <v>1.6752849504249088</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="G25" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="9">
-        <v>4.5181032517933742E-3</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="9">
-        <v>29</v>
-      </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="10">
-        <v>2.007583770315835</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="G27" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="9">
-        <v>-7.3502394235271344</v>
-      </c>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G28" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="9">
-        <v>2.1291178892303741E-8</v>
-      </c>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G29" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1.6991270265334986</v>
-      </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="9">
-        <v>4.2582357784607481E-8</v>
-      </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="10">
-        <v>2.0452296421327048</v>
-      </c>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="9">
-        <v>189.94300000000001</v>
-      </c>
-      <c r="C33" s="9">
-        <v>175.92800000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="9">
-        <v>44.022890689655199</v>
-      </c>
-      <c r="C34" s="9">
-        <v>3.1383475862068986</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="9">
-        <v>30</v>
-      </c>
-      <c r="C35" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="9">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="9">
-        <v>33</v>
-      </c>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="9">
-        <v>11.177923414007948</v>
-      </c>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="9">
-        <v>4.6357952726418282E-13</v>
-      </c>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="9">
-        <v>1.6923603090303456</v>
-      </c>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="9">
-        <v>9.2715905452836565E-13</v>
-      </c>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="10">
-        <v>2.0345152974493397</v>
-      </c>
-      <c r="C42" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
@@ -14947,7 +14402,7 @@
         <v>232.7</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K18">
         <f>(QUARTILE(B2:B31,3))</f>
@@ -15587,7 +15042,7 @@
         <v>73</v>
       </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K38">
         <f>QUARTILE(C2:C31,3)</f>
@@ -15755,7 +15210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44FE115-DF6F-EC41-8C23-7E982EF24CA7}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
@@ -16450,7 +15905,7 @@
         <v>242.53</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K18">
         <f>QUARTILE(B2:B31,3)</f>
@@ -17078,7 +16533,7 @@
         <v>73</v>
       </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K38">
         <f>QUARTILE(C2:C31,3)</f>
@@ -17381,7 +16836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92331443-215F-B845-8F73-6DF91C381780}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
@@ -18076,7 +17531,7 @@
         <v>231.6</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K18">
         <f>QUARTILE(B2:B31,3)</f>
@@ -18704,7 +18159,7 @@
         <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K38">
         <f>QUARTILE(C2:C31,3)</f>
@@ -19081,23 +18536,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C97C4AE-1E21-3C44-852E-FDB61FADA4B3}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView topLeftCell="A5" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -19156,12 +18611,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -19203,12 +18658,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -19260,12 +18715,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25552FE2-41EA-FF44-B115-EA1DC2D32EE6}">
   <dimension ref="A1:AM111"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19303,12 +18758,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -19323,47 +18778,47 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3">
-        <v>263.07</v>
+        <v>263.64</v>
       </c>
       <c r="C3">
-        <v>293.62</v>
+        <v>293.58999999999997</v>
       </c>
       <c r="D3">
-        <v>161.75</v>
+        <v>240.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B4">
-        <v>261.49</v>
+        <v>261.64</v>
       </c>
       <c r="C4">
-        <v>284.41000000000003</v>
+        <v>284.60000000000002</v>
       </c>
       <c r="D4">
-        <v>161.75</v>
+        <v>240.1</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" t="s">
         <v>98</v>
       </c>
-      <c r="I17" t="s">
+      <c r="Y17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG17" t="s">
         <v>101</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
@@ -22713,10 +22168,10 @@
         <v>1</v>
       </c>
       <c r="Z52" s="2"/>
-      <c r="AB52" s="8" t="s">
+      <c r="AB52" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AC52" s="8"/>
+      <c r="AC52" s="9"/>
       <c r="AD52" s="6"/>
       <c r="AE52" s="6"/>
       <c r="AG52" s="2" t="s">
@@ -23625,7 +23080,7 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70">
         <f>QUARTILE(B20:B49,3)</f>
@@ -23636,7 +23091,7 @@
         <v>62.914999999999999</v>
       </c>
       <c r="I70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J70">
         <f>QUARTILE(J20:J49,3)</f>
@@ -23647,7 +23102,7 @@
         <v>62.172499999999999</v>
       </c>
       <c r="Q70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R70">
         <f>QUARTILE(R20:R49,3)</f>
@@ -23658,7 +23113,7 @@
         <v>69.114999999999995</v>
       </c>
       <c r="Y70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z70">
         <f>QUARTILE(Z20:Z49,3)</f>
@@ -23669,7 +23124,7 @@
         <v>67.905000000000001</v>
       </c>
       <c r="AG70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH70">
         <f>QUARTILE(AH20:AH49,3)</f>
@@ -24677,7 +24132,7 @@
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B92">
         <f>QUARTILE(D20:D49,3)</f>
@@ -24688,7 +24143,7 @@
         <v>16.807499999999997</v>
       </c>
       <c r="I92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J92">
         <f>QUARTILE(L20:L49,3)</f>
@@ -24699,7 +24154,7 @@
         <v>16.84</v>
       </c>
       <c r="Q92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R92">
         <f>QUARTILE(T20:T49,3)</f>
@@ -24710,7 +24165,7 @@
         <v>16.995000000000001</v>
       </c>
       <c r="Y92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z92">
         <f>QUARTILE(AB20:AB49,3)</f>
@@ -24721,7 +24176,7 @@
         <v>16.97</v>
       </c>
       <c r="AG92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH92">
         <f>QUARTILE(AJ20:AJ49,3)</f>
@@ -25679,4 +25134,540 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908A96D2-F466-EC41-B67B-828D7E824AC9}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="3" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>174.23500000000001</v>
+      </c>
+      <c r="C4">
+        <v>189.94300000000001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>6.6030051724137815</v>
+      </c>
+      <c r="C5">
+        <v>44.022890689655199</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>62.829666666666661</v>
+      </c>
+      <c r="I6">
+        <v>61.195333333333338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>8.3928309195402306</v>
+      </c>
+      <c r="I7">
+        <v>1.5295636781609196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9">
+        <v>-12.0919170488517</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9">
+        <v>0.39164519221337885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <v>6.765286070548117E-15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>1.6859544601667387</v>
+      </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>1.3530572141096234E-14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12">
+        <v>3.3557197024537828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.0243941639119702</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13">
+        <v>1.1111000162991927E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14">
+        <v>1.6991270265334986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15">
+        <v>2.2222000325983855E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.0452296421327048</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>174.23500000000001</v>
+      </c>
+      <c r="C18">
+        <v>175.92800000000003</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>6.6030051724137815</v>
+      </c>
+      <c r="C19">
+        <v>3.1383475862068986</v>
+      </c>
+      <c r="G19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21">
+        <v>62.829666666666661</v>
+      </c>
+      <c r="I21">
+        <v>66.957999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22">
+        <v>8.3928309195402306</v>
+      </c>
+      <c r="I22">
+        <v>2.1016372413793065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23">
+        <v>-2.9710362465260332</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24">
+        <v>2.2590516258966871E-3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24">
+        <v>0.12269734490284293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25">
+        <v>1.6752849504249088</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26">
+        <v>4.5181032517933742E-3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.007583770315835</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27">
+        <v>-7.3502394235271344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28">
+        <v>2.1291178892303741E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29">
+        <v>1.6991270265334986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30">
+        <v>4.2582357784607481E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2.0452296421327048</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>189.94300000000001</v>
+      </c>
+      <c r="C33">
+        <v>175.92800000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34">
+        <v>44.022890689655199</v>
+      </c>
+      <c r="C34">
+        <v>3.1383475862068986</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38">
+        <v>11.177923414007948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39">
+        <v>4.6357952726418282E-13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40">
+        <v>1.6923603090303456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41">
+        <v>9.2715905452836565E-13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2.0345152974493397</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>